--- a/Dokumentation/Sprint02.xlsx
+++ b/Dokumentation/Sprint02.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="34540" yWindow="-1880" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +100,12 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -482,7 +488,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -664,7 +670,9 @@
       <c r="C22" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Dokumentation/Sprint02.xlsx
+++ b/Dokumentation/Sprint02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Krav</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Undersöka iOS Developer Program och eventuellt ansöka</t>
+  </si>
+  <si>
+    <t>Jobba med Player-class (poängräkning, positionering med mera)</t>
+  </si>
+  <si>
+    <t>Påbörjad</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -530,13 +536,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -547,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -628,11 +634,14 @@
       <c r="A11">
         <v>14</v>
       </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -644,11 +653,11 @@
       </c>
       <c r="E13">
         <f>SUM(E5:E12)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13">
         <f>SUM(F5:F11)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/Dokumentation/Sprint02.xlsx
+++ b/Dokumentation/Sprint02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Krav</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Påbörjad</t>
+  </si>
+  <si>
+    <t>Slutförd</t>
   </si>
 </sst>
 </file>
@@ -115,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -153,13 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +504,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -536,13 +546,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -553,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -570,17 +580,17 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -597,7 +607,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -621,13 +631,13 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -644,20 +654,25 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E13">
-        <f>SUM(E5:E12)</f>
+      <c r="E15">
+        <f>SUM(E5:E13)</f>
         <v>21</v>
       </c>
-      <c r="F13">
-        <f>SUM(F5:F11)</f>
-        <v>3</v>
+      <c r="F15">
+        <f>SUM(F5:F13)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">

--- a/Dokumentation/Sprint02.xlsx
+++ b/Dokumentation/Sprint02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34540" yWindow="-1880" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="32200" yWindow="820" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Krav</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Slutförd</t>
+  </si>
+  <si>
+    <t>Sprint 2 har varit händelserik och applikationen har tagit stora steg framåt. Mycket arbete har gjorts för att få fysiken att fungera precis som tänkt och även jobbat en hel del med möjligheter att ändra inställningar för spelet. Refactoring har gjorts en hel del för att få bättre struktur och ansvarsområden inom applikationen. Något jag märkt denna sprint är att en hel del arbete har lagt utanför någon av uppgifterna ovan. Glidit in på att fixa andra saker än vad som först nämnt, vilket jag ska försöka hålla striktare på i Sprint 3. Jag är extremt glad över att ha gått med i iOS Developer Program för att kunna testa applikationen på en riktig fysisk enhet. Utan det hade flera touch-event inte kunnat testas samt så har spelet blivit för krävande för att flyta i simulatorn.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -569,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -614,13 +617,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -648,13 +651,13 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -672,7 +675,7 @@
       </c>
       <c r="F15">
         <f>SUM(F5:F13)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -690,8 +693,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="2"/>
+    <row r="22" spans="3:3" ht="165">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
